--- a/biology/Botanique/Streblorrhiza_speciosa/Streblorrhiza_speciosa.xlsx
+++ b/biology/Botanique/Streblorrhiza_speciosa/Streblorrhiza_speciosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Streblorrhiza speciosa est une espèce de plantes à fleurs dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, endémique de l'île Phillip (Norfolk). Cette espèce, la seule du genre Streblorrhiza (genre monotypique), est considérée comme éteinte.
-Cette plante a été décrite en premier par Stephan Endlicher en 1833, à partie de deux spécimens récoltés par Ferdinand Bauer et constitue le type d'un nouveau genre monotypique. L'un de ces spécimens est le seul connu portant des fruits[2].
+Cette plante a été décrite en premier par Stephan Endlicher en 1833, à partie de deux spécimens récoltés par Ferdinand Bauer et constitue le type d'un nouveau genre monotypique. L'un de ces spécimens est le seul connu portant des fruits.
 L'espèce a disparu depuis 1860 dans son habitat originel, mais on sait que cette plante a été cultivée.
-Un appel a été lancé en 2007 pour rechercher la plante dans des jardins historiques[3]. L'espèce a été déclarée éteinte en 1998[4].
+Un appel a été lancé en 2007 pour rechercher la plante dans des jardins historiques. L'espèce a été déclarée éteinte en 1998.
 </t>
         </is>
       </c>
